--- a/DATA/Vocabularies/trigger.xlsx
+++ b/DATA/Vocabularies/trigger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>Phrases</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Conditional Phrases</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -459,6 +464,7 @@
           <t xml:space="preserve">court, hearing, </t>
         </is>
       </c>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -474,6 +480,7 @@
           <t>not local, not from area, outside, only be local, only local people</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -489,6 +496,7 @@
           <t xml:space="preserve">COSATU, NUMSA, national strike, </t>
         </is>
       </c>
+      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -501,9 +509,10 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Fired, suspended, dismissed, disciplin*</t>
-        </is>
-      </c>
+          <t>Fired, suspended, dismissed, discipline</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -519,6 +528,7 @@
           <t>Payment, salary, cheque, overtime, wage, wages, remuneration, not paid, bonus, bonusses, percent, unfair</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -534,6 +544,7 @@
           <t>Evicted, relocated, red ants, demolition, relocation, removal, demolished</t>
         </is>
       </c>
+      <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -546,7 +557,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Disconnected, power is down, electricity is down, power AND cut, electricity AND cut, water, prepaid, </t>
+          <t>Disconnected, power is down, electricity is down, power</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>cut, electricity AND cut, water, prepaid , loadshedding, blackout, watershedding</t>
         </is>
       </c>
     </row>
@@ -564,6 +580,7 @@
           <t>Party list, circulate, for councillor, the candidate, on the list, wrong candidate, want another person</t>
         </is>
       </c>
+      <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -579,6 +596,7 @@
           <t>did not arrive, failed to respond, did not come back, did not come</t>
         </is>
       </c>
+      <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -594,6 +612,7 @@
           <t>food, conditions, health, safety, equipment</t>
         </is>
       </c>
+      <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -609,6 +628,7 @@
           <t>Arrest, release</t>
         </is>
       </c>
+      <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -624,6 +644,7 @@
           <t>Crime, murder, kidnapped, was attacked, killed</t>
         </is>
       </c>
+      <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -636,9 +657,10 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Capitalism, privatisation, prvatise, privatize, </t>
-        </is>
-      </c>
+          <t>Capitalism, privatisation, prvatise, privatize, privatization,</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/DATA/Vocabularies/trigger.xlsx
+++ b/DATA/Vocabularies/trigger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Conditional Phrases</t>
+          <t>Conditional_Phrases</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>cleaned_phrases</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>cleaned_conditional_phrases</t>
         </is>
       </c>
     </row>
@@ -461,10 +471,20 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">court, hearing, </t>
+          <t>['court', ' hearing', ' ']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>['court', 'hearing']</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>['court', 'hearing']</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -477,10 +497,20 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>not local, not from area, outside, only be local, only local people</t>
+          <t>['not local', ' not from area', ' outside', ' only be local', ' only local people']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>['local', 'area', 'outside', 'local', 'local', 'people']</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>['local', 'area', 'outside', 'local', 'local', 'people']</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -493,10 +523,20 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">COSATU, NUMSA, national strike, </t>
+          <t>['COSATU', ' NUMSA', ' national strike', ' ']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>['cosatu', 'numsa', 'national', 'strike']</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>['cosatu', 'numsa', 'national', 'strike']</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -509,10 +549,20 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Fired, suspended, dismissed, discipline</t>
+          <t>['Fired', ' suspended', ' dismissed', ' discipline']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>['fire', 'suspend', 'dismissed', 'discipline']</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>['fire', 'suspend', 'dismissed', 'discipline']</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -525,10 +575,20 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Payment, salary, cheque, overtime, wage, wages, remuneration, not paid, bonus, bonusses, percent, unfair</t>
+          <t>['Payment', ' salary', ' cheque', ' overtime', ' wage', ' wages', ' remuneration', ' not paid', ' bonus', ' bonusses', ' percent', ' unfair']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>['payment', 'salary', 'cheque', 'overtime', 'wage', 'wage', 'remuneration', 'pay', 'bonus', 'bonus', 'percent', 'unfair']</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>['payment', 'salary', 'cheque', 'overtime', 'wage', 'wage', 'remuneration', 'pay', 'bonus', 'bonus', 'percent', 'unfair']</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -541,10 +601,20 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Evicted, relocated, red ants, demolition, relocation, removal, demolished</t>
+          <t>['Evicted', ' relocated', ' red ants', ' demolition', ' relocation', ' removal', ' demolished']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>['evict', 'relocate', 'red', 'ant', 'demolition', 'relocation', 'removal', 'demolish']</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>['evict', 'relocate', 'red', 'ant', 'demolition', 'relocation', 'removal', 'demolish']</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -557,12 +627,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Disconnected, power is down, electricity is down, power</t>
+          <t>['Disconnected', ' power is down', ' electricity is down', ' power']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>cut, electricity AND cut, water, prepaid , loadshedding, blackout, watershedding</t>
+          <t>['cut', ' electricity AND cut', ' water', ' prepaid ', ' loadshedding', ' blackout', ' watershedding']</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>['disconnected', 'power', 'electricity', 'power']</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>['disconnected', 'power', 'electricity', 'power']</t>
         </is>
       </c>
     </row>
@@ -577,10 +657,20 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Party list, circulate, for councillor, the candidate, on the list, wrong candidate, want another person</t>
+          <t>['Party list', ' circulate', ' for councillor', ' the candidate', ' on the list', ' wrong candidate', ' want another person']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>['party', 'list', 'circulate', 'councillor', 'candidate', 'list', 'wrong', 'candidate', 'want', 'another', 'person']</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>['party', 'list', 'circulate', 'councillor', 'candidate', 'list', 'wrong', 'candidate', 'want', 'another', 'person']</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -593,10 +683,20 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>did not arrive, failed to respond, did not come back, did not come</t>
+          <t>['did not arrive', ' failed to respond', ' did not come back', ' did not come']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>['arrive', 'fail', 'respond', 'come', 'back', 'come']</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>['arrive', 'fail', 'respond', 'come', 'back', 'come']</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -609,10 +709,20 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>food, conditions, health, safety, equipment</t>
+          <t>['food', ' conditions', ' health', ' safety', ' equipment']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>['food', 'condition', 'health', 'safety', 'equipment']</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>['food', 'condition', 'health', 'safety', 'equipment']</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -625,10 +735,20 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Arrest, release</t>
+          <t>['Arrest', ' release']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>['arrest', 'release']</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>['arrest', 'release']</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -641,10 +761,20 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Crime, murder, kidnapped, was attacked, killed</t>
+          <t>['Crime', ' murder', ' kidnapped', ' was attacked', ' killed']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>['crime', 'murder', 'kidnap', 'attack', 'kill']</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>['crime', 'murder', 'kidnap', 'attack', 'kill']</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -657,10 +787,20 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Capitalism, privatisation, prvatise, privatize, privatization,</t>
+          <t>['Capitalism', ' privatisation', ' prvatise', ' privatize', ' privatization', '']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>['capitalism', 'privatisation', 'prvatise', 'privatize', 'privatization']</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>['capitalism', 'privatisation', 'prvatise', 'privatize', 'privatization']</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/DATA/Vocabularies/trigger.xlsx
+++ b/DATA/Vocabularies/trigger.xlsx
@@ -480,11 +480,7 @@
           <t>['court', 'hearing']</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>['court', 'hearing']</t>
-        </is>
-      </c>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -506,11 +502,7 @@
           <t>['local', 'area', 'outside', 'local', 'local', 'people']</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>['local', 'area', 'outside', 'local', 'local', 'people']</t>
-        </is>
-      </c>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,11 +524,7 @@
           <t>['cosatu', 'numsa', 'national', 'strike']</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>['cosatu', 'numsa', 'national', 'strike']</t>
-        </is>
-      </c>
+      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -558,11 +546,7 @@
           <t>['fire', 'suspend', 'dismissed', 'discipline']</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>['fire', 'suspend', 'dismissed', 'discipline']</t>
-        </is>
-      </c>
+      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -584,11 +568,7 @@
           <t>['payment', 'salary', 'cheque', 'overtime', 'wage', 'wage', 'remuneration', 'pay', 'bonus', 'bonus', 'percent', 'unfair']</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>['payment', 'salary', 'cheque', 'overtime', 'wage', 'wage', 'remuneration', 'pay', 'bonus', 'bonus', 'percent', 'unfair']</t>
-        </is>
-      </c>
+      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -610,11 +590,7 @@
           <t>['evict', 'relocate', 'red', 'ant', 'demolition', 'relocation', 'removal', 'demolish']</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>['evict', 'relocate', 'red', 'ant', 'demolition', 'relocation', 'removal', 'demolish']</t>
-        </is>
-      </c>
+      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -632,7 +608,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['cut', ' electricity AND cut', ' water', ' prepaid ', ' loadshedding', ' blackout', ' watershedding']</t>
+          <t>['cut', ' electricity', ' water', ' prepaid ', ' loadshedding', ' blackout', ' watershedding']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -642,7 +618,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>['disconnected', 'power', 'electricity', 'power']</t>
+          <t>['cut', 'electricity', 'water', 'prepay', 'loadshedding', 'blackout', 'watershedding']</t>
         </is>
       </c>
     </row>
@@ -666,11 +642,7 @@
           <t>['party', 'list', 'circulate', 'councillor', 'candidate', 'list', 'wrong', 'candidate', 'want', 'another', 'person']</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>['party', 'list', 'circulate', 'councillor', 'candidate', 'list', 'wrong', 'candidate', 'want', 'another', 'person']</t>
-        </is>
-      </c>
+      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -692,11 +664,7 @@
           <t>['arrive', 'fail', 'respond', 'come', 'back', 'come']</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>['arrive', 'fail', 'respond', 'come', 'back', 'come']</t>
-        </is>
-      </c>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -718,11 +686,7 @@
           <t>['food', 'condition', 'health', 'safety', 'equipment']</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>['food', 'condition', 'health', 'safety', 'equipment']</t>
-        </is>
-      </c>
+      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -744,11 +708,7 @@
           <t>['arrest', 'release']</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>['arrest', 'release']</t>
-        </is>
-      </c>
+      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -770,11 +730,7 @@
           <t>['crime', 'murder', 'kidnap', 'attack', 'kill']</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>['crime', 'murder', 'kidnap', 'attack', 'kill']</t>
-        </is>
-      </c>
+      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -796,11 +752,7 @@
           <t>['capitalism', 'privatisation', 'prvatise', 'privatize', 'privatization']</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>['capitalism', 'privatisation', 'prvatise', 'privatize', 'privatization']</t>
-        </is>
-      </c>
+      <c r="F14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/DATA/Vocabularies/trigger.xlsx
+++ b/DATA/Vocabularies/trigger.xlsx
@@ -471,13 +471,13 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['court', ' hearing', ' ']</t>
+          <t>['court', 'hearing']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['court', 'hearing']</t>
+          <t>['court,hearing']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -493,13 +493,13 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['not local', ' not from area', ' outside', ' only be local', ' only local people']</t>
+          <t>['not local', 'not from area', 'outside', 'only be local', 'only local people']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['local', 'area', 'outside', 'local', 'local', 'people']</t>
+          <t>['local,not', 'area,outside,only', 'local,only', 'local', 'people']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -515,13 +515,13 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['COSATU', ' NUMSA', ' national strike', ' ']</t>
+          <t>['COSATU', 'NUMSA', 'national strike']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['cosatu', 'numsa', 'national', 'strike']</t>
+          <t>['cosatu,numsa,national', 'strike']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -537,13 +537,13 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['Fired', ' suspended', ' dismissed', ' discipline']</t>
+          <t>['Fired', 'suspended', 'dismissed', 'discipline']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['fire', 'suspend', 'dismissed', 'discipline']</t>
+          <t>['fired,suspended,dismissed,discipline']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -559,13 +559,13 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['Payment', ' salary', ' cheque', ' overtime', ' wage', ' wages', ' remuneration', ' not paid', ' bonus', ' bonusses', ' percent', ' unfair']</t>
+          <t>['Payment', 'salary', 'cheque', 'overtime', 'wage', 'wages', 'remuneration', 'not paid', 'bonus', 'bonusses', 'percent', 'unfair']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['payment', 'salary', 'cheque', 'overtime', 'wage', 'wage', 'remuneration', 'pay', 'bonus', 'bonus', 'percent', 'unfair']</t>
+          <t>['payment,salary,cheque,overtime,wage,wages,remuneration,not', 'paid,bonus,bonusses,percent,unfair']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -581,13 +581,13 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>['Evicted', ' relocated', ' red ants', ' demolition', ' relocation', ' removal', ' demolished']</t>
+          <t>['Evicted', 'relocated', 'red ants', 'demolition', 'relocation', 'removal', 'demolished']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['evict', 'relocate', 'red', 'ant', 'demolition', 'relocation', 'removal', 'demolish']</t>
+          <t>['evicted,relocated,red', 'ants,demolition,relocation,removal,demolished']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -603,22 +603,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['Disconnected', ' power is down', ' electricity is down', ' power']</t>
+          <t>['Disconnected', 'power is down', 'electricity is down', 'power']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['cut', ' electricity', ' water', ' prepaid ', ' loadshedding', ' blackout', ' watershedding']</t>
+          <t>['cut', 'electricity', 'water', 'prepaid', 'loadshedding', 'blackout', 'watershedding']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['disconnected', 'power', 'electricity', 'power']</t>
+          <t>['disconnected,power', 'down,electricity', 'down,power']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>['cut', 'electricity', 'water', 'prepay', 'loadshedding', 'blackout', 'watershedding']</t>
+          <t>['cut,electricity,water,prepaid,loadshedding,blackout,watershedding']</t>
         </is>
       </c>
     </row>
@@ -633,13 +633,13 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['Party list', ' circulate', ' for councillor', ' the candidate', ' on the list', ' wrong candidate', ' want another person']</t>
+          <t>['Party list', 'circulate', 'for councillor', 'the candidate', 'on the list', 'wrong candidate', 'want another person']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['party', 'list', 'circulate', 'councillor', 'candidate', 'list', 'wrong', 'candidate', 'want', 'another', 'person']</t>
+          <t>['party', 'list,circulate,for', 'councillor,the', 'candidate,on', 'list,wrong', 'candidate,want', 'another', 'person']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -655,13 +655,13 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>['did not arrive', ' failed to respond', ' did not come back', ' did not come']</t>
+          <t>['did not arrive', 'failed to respond', 'did not come back', 'did not come']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['arrive', 'fail', 'respond', 'come', 'back', 'come']</t>
+          <t>['arrive,failed', 'respond,did', 'come', 'back,did', 'come']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -677,13 +677,13 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>['food', ' conditions', ' health', ' safety', ' equipment']</t>
+          <t>['food', 'conditions', 'health', 'safety', 'equipment']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['food', 'condition', 'health', 'safety', 'equipment']</t>
+          <t>['food,conditions,health,safety,equipment']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -699,13 +699,13 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>['Arrest', ' release']</t>
+          <t>['Arrest', 'release']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['arrest', 'release']</t>
+          <t>['arrest,release']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
@@ -721,13 +721,13 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>['Crime', ' murder', ' kidnapped', ' was attacked', ' killed']</t>
+          <t>['Crime', 'murder', 'kidnapped', 'was attacked', 'killed']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['crime', 'murder', 'kidnap', 'attack', 'kill']</t>
+          <t>['crime,murder,kidnapped,was', 'attacked,killed']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
@@ -743,13 +743,13 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>['Capitalism', ' privatisation', ' prvatise', ' privatize', ' privatization', '']</t>
+          <t>['Capitalism', 'privatisation', 'prvatise', 'privatize', 'privatization']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['capitalism', 'privatisation', 'prvatise', 'privatize', 'privatization']</t>
+          <t>['capitalism,privatisation,prvatise,privatize,privatization']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>

--- a/DATA/Vocabularies/trigger.xlsx
+++ b/DATA/Vocabularies/trigger.xlsx
@@ -537,13 +537,13 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['Fired', 'suspended', 'dismissed', 'discipline']</t>
+          <t>['Fired', 'suspended', 'dismissed', 'discipline', 'dissmissal', 'dissmiss']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['fired,suspended,dismissed,discipline']</t>
+          <t>['fired,suspended,dismissed,discipline,dissmissal,dissmiss']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -581,13 +581,13 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>['Evicted', 'relocated', 'red ants', 'demolition', 'relocation', 'removal', 'demolished']</t>
+          <t>['Evicted', 'relocated', 'red ants', 'demolition', 'relocation', 'removal', 'demolished', 'evict']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['evicted,relocated,red', 'ants,demolition,relocation,removal,demolished']</t>
+          <t>['evicted,relocated,red', 'ants,demolition,relocation,removal,demolished,evict']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -603,22 +603,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['Disconnected', 'power is down', 'electricity is down', 'power']</t>
+          <t>['Disconnected', 'power is down', 'electricity is down', 'power', 'loadshedding', 'load shedding', 'eskom']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['cut', 'electricity', 'water', 'prepaid', 'loadshedding', 'blackout', 'watershedding']</t>
+          <t>['cut', 'electricity', 'water', 'prepaid', 'loadshedding', 'blackout', 'watershedding', 'loadshedding', 'load shedding', 'eskom', 'power']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['disconnected,power', 'down,electricity', 'down,power']</t>
+          <t>['disconnected,power', 'down,electricity', 'down,power,loadshedding,load', 'shedding,eskom']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>['cut,electricity,water,prepaid,loadshedding,blackout,watershedding']</t>
+          <t>['cut,electricity,water,prepaid,loadshedding,blackout,watershedding,loadshedding,load', 'shedding,eskom,power']</t>
         </is>
       </c>
     </row>
@@ -633,13 +633,13 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['Party list', 'circulate', 'for councillor', 'the candidate', 'on the list', 'wrong candidate', 'want another person']</t>
+          <t>['Party list', 'circulate', 'for councillor', 'the candidate', 'on the list', 'wrong candidate', 'want another person', 'recount']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['party', 'list,circulate,for', 'councillor,the', 'candidate,on', 'list,wrong', 'candidate,want', 'another', 'person']</t>
+          <t>['party', 'list,circulate,for', 'councillor,the', 'candidate,on', 'list,wrong', 'candidate,want', 'another', 'person,recount']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -699,13 +699,13 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>['Arrest', 'release']</t>
+          <t>['Arrest', 'release', 'inprison', 'in prison']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['arrest,release']</t>
+          <t>['arrest,release,inprison,in', 'prison']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
@@ -721,13 +721,13 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>['Crime', 'murder', 'kidnapped', 'was attacked', 'killed']</t>
+          <t>['Crime', 'murder', 'kidnapped', 'was attacked', 'killed', 'kidnap']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['crime,murder,kidnapped,was', 'attacked,killed']</t>
+          <t>['crime,murder,kidnapped,was', 'attacked,killed,kidnap']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>

--- a/DATA/Vocabularies/trigger.xlsx
+++ b/DATA/Vocabularies/trigger.xlsx
@@ -462,7 +462,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -484,7 +484,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -506,7 +506,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -528,7 +528,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -550,7 +550,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -572,7 +572,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -594,7 +594,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -646,7 +646,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -690,7 +690,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -734,7 +734,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
